--- a/data/long_dif/P24_7-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_7-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,14</t>
+          <t>4,94; 16,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 17,24</t>
+          <t>8,04; 17,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 21,04</t>
+          <t>7,04; 22,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,2</t>
+          <t>12,15; 24,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 17,08</t>
+          <t>8,78; 17,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,92</t>
+          <t>4,75; 12,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 18,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 15,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 14,84</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,65%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,54; 82,4</t>
+          <t>76,26; 90,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,05; 79,32</t>
+          <t>65,9; 78,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,5; 77,0</t>
+          <t>57,92; 80,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,52; 77,16</t>
+          <t>56,75; 72,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,46; 76,86</t>
+          <t>62,96; 75,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 76,2</t>
+          <t>51,57; 67,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68,3; 79,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66,62; 75,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56,66; 70,41</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>32,55%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 35,29</t>
+          <t>2,8; 11,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 20,91</t>
+          <t>11,2; 21,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 20,38</t>
+          <t>10,92; 27,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,23</t>
+          <t>11,79; 24,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 25,07</t>
+          <t>13,78; 23,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 19,64</t>
+          <t>24,78; 41,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 16,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 20,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 32,69</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 18,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,13; 78,94</t>
+          <t>6,76; 15,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,18; 80,44</t>
+          <t>8,69; 15,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,23; 77,11</t>
+          <t>8,05; 15,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,54; 77,16</t>
+          <t>11,86; 21,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,15; 77,09</t>
+          <t>9,68; 15,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,93; 77,65</t>
+          <t>9,29; 15,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 16,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 14,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 14,6</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>66,16%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72,55%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>74,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>66,42%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 21,83</t>
+          <t>65,43; 79,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,79; 18,26</t>
+          <t>70,63; 80,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,07; 15,94</t>
+          <t>60,12; 72,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,83</t>
+          <t>66,59; 76,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 17,31</t>
+          <t>69,08; 77,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 17,21</t>
+          <t>60,52; 71,31</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67,68; 76,25</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70,89; 77,38</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62,26; 70,22</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,33</t>
+          <t>12,46; 24,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,4</t>
+          <t>8,91; 17,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 17,85</t>
+          <t>16,43; 28,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,66</t>
+          <t>9,41; 16,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,12</t>
+          <t>11,21; 18,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,47</t>
+          <t>18,03; 26,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 19,04</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,97; 16,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 25,88</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>79,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>75,07; 84,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,02; 81,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,74; 75,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>71,33; 79,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>71,71; 78,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>73,2; 79,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,67</t>
+          <t>6,7; 14,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,3; 18,23</t>
+          <t>6,2; 12,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,78</t>
+          <t>9,62; 18,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,68</t>
+          <t>10,7; 18,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,16</t>
+          <t>9,81; 16,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,07</t>
+          <t>6,29; 12,12</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 15,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 13,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 13,73</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>75,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>76,42%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>68,78%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,37</t>
+          <t>74,82; 84,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,05</t>
+          <t>72,2; 81,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,78</t>
+          <t>61,26; 74,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,32</t>
+          <t>64,55; 75,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,57; 13,95</t>
+          <t>71,4; 79,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,38; 13,17</t>
+          <t>63,91; 74,1</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>71,43; 78,77</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>73,35; 79,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64,65; 72,65</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>71,34; 79,62</t>
+          <t>6,08; 12,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>72,12; 78,34</t>
+          <t>10,34; 18,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>68,8; 74,5</t>
+          <t>14,34; 24,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>70,94; 75,97</t>
+          <t>11,75; 20,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>71,47; 76,6</t>
+          <t>8,78; 15,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>72,33; 76,34</t>
+          <t>17,68; 26,56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 15,14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 15,24</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 24,32</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,06; 18,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>11,4; 17,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,84; 16,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,94; 16,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,2; 15,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 16,08</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 16,31</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 14,72</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>72,34%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>75,59%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>73,86%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>60,45; 79,78</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>68,34; 82,28</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>67,02; 78,76</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>10,58; 31,64</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 20,09</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 24,31</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 12,68</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 13,0</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 15,75</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 17,5</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 14,54</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 11,92</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 14,08</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 13,27</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>76,51%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>71,11%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>73,18%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>65,76%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>73,77%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>74,38%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>66,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>72,46; 80,08</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>72,51; 78,66</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>63,18; 71,86</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>68,11; 73,94</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>70,65; 75,78</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 69,14</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>71,07; 76,02</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>72,32; 76,38</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>64,05; 69,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 17,62</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 16,19</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 23,87</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 16,36</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 16,48</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 27,46</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 16,1</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 15,63</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 24,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
